--- a/Sketch of project.xlsx
+++ b/Sketch of project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johns\Desktop\Bootcamp_Folder\good-movies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{480A1386-FDE2-4727-BCF9-2AD0EC61F2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710EA84B-AD69-4E7E-962E-E54E72FFA13E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BF3C6B1-8147-4F17-8796-E1376BB8DDEB}"/>
   </bookViews>
@@ -987,7 +987,7 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1058,7 +1058,7 @@
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>

--- a/Sketch of project.xlsx
+++ b/Sketch of project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johns\Desktop\Bootcamp_Folder\good-movies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710EA84B-AD69-4E7E-962E-E54E72FFA13E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97563302-7ED0-4686-BA50-607F7A7C72CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BF3C6B1-8147-4F17-8796-E1376BB8DDEB}"/>
   </bookViews>
@@ -55,12 +55,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{446C2CAF-D0E7-4562-9346-A222875AA6E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Geoffrey Johnston:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop down menu
+1927 - 2017</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Group 7 Project Format</t>
   </si>
@@ -170,18 +195,12 @@
     <t>Movie Success - What makes a movie a success?</t>
   </si>
   <si>
-    <t>Revenue</t>
-  </si>
-  <si>
     <t>Oscar</t>
   </si>
   <si>
     <t>Non-Oscar</t>
   </si>
   <si>
-    <t>Ratings</t>
-  </si>
-  <si>
     <t>Gross revenue doesn't</t>
   </si>
   <si>
@@ -201,6 +220,15 @@
   </si>
   <si>
     <t>predict an Oscar winner</t>
+  </si>
+  <si>
+    <t>Average Revenue</t>
+  </si>
+  <si>
+    <t>Average Budget</t>
+  </si>
+  <si>
+    <t>Average Ratings</t>
   </si>
 </sst>
 </file>
@@ -483,9 +511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>577850</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -529,7 +557,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>206375</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -986,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7525A-12FB-4024-8CEC-B9AC7AA3691E}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1651,7 +1679,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1666,9 +1694,11 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="10">
+        <v>2017</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1702,7 +1732,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="6"/>
@@ -1710,7 +1740,7 @@
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G31" s="4"/>
       <c r="H31" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="14"/>
@@ -1719,7 +1749,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="6"/>
@@ -1734,7 +1764,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="6"/>
@@ -1771,10 +1801,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -1818,7 +1848,7 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="6"/>
@@ -1826,7 +1856,7 @@
     <row r="39" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G39" s="4"/>
       <c r="H39" s="5" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="14"/>
@@ -1835,7 +1865,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="6"/>
@@ -1885,10 +1915,10 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -1919,7 +1949,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="6"/>
@@ -1927,7 +1957,7 @@
     <row r="46" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G46" s="4"/>
       <c r="H46" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="14"/>
@@ -1936,7 +1966,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="6"/>
@@ -1986,10 +2016,10 @@
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>

--- a/Sketch of project.xlsx
+++ b/Sketch of project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johns\Desktop\Bootcamp_Folder\good-movies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97563302-7ED0-4686-BA50-607F7A7C72CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E6030D-0952-4108-BC65-38FDC0E1F6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BF3C6B1-8147-4F17-8796-E1376BB8DDEB}"/>
   </bookViews>
@@ -55,31 +55,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{446C2CAF-D0E7-4562-9346-A222875AA6E0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Geoffrey Johnston:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Drop down menu
-1927 - 2017</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -238,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +234,20 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -455,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -483,12 +472,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -511,9 +509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -557,7 +555,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>206375</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -593,22 +591,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>179886</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>571276</xdr:colOff>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30EAE059-9E73-4D93-9115-B1D25B9D98C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36186DF7-8E20-4021-BE0A-F252672851E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -624,8 +622,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5666286" y="5295900"/>
-          <a:ext cx="2220190" cy="885825"/>
+          <a:off x="5511800" y="5286376"/>
+          <a:ext cx="2400300" cy="866774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -634,20 +632,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>106861</xdr:colOff>
+      <xdr:colOff>44450</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2217015" cy="889000"/>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C0A7CC-45C9-4EB9-93B2-53DA15F717A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C273559-75BA-4D31-94DA-261A5FA0B26A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -663,8 +666,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5593261" y="6740525"/>
-          <a:ext cx="2217015" cy="889000"/>
+          <a:off x="5530850" y="6734175"/>
+          <a:ext cx="2432049" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,21 +675,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>179886</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2217015" cy="889000"/>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8787F362-2C93-444A-A556-42BA46AC55CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE5E242-C937-455A-8B4C-E27557B14614}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -702,8 +710,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5669461" y="6740525"/>
-          <a:ext cx="2217015" cy="889000"/>
+          <a:off x="5524500" y="8001002"/>
+          <a:ext cx="2438399" cy="904874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -711,7 +719,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1014,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7525A-12FB-4024-8CEC-B9AC7AA3691E}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1679,7 +1687,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1694,11 +1702,9 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G28" s="4"/>
-      <c r="H28" s="10">
-        <v>2017</v>
-      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1800,10 +1806,10 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="25" t="s">
         <v>37</v>
       </c>
       <c r="M35" s="5"/>
@@ -1914,10 +1920,10 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="25" t="s">
         <v>37</v>
       </c>
       <c r="M43" s="5"/>
@@ -2001,10 +2007,10 @@
       <c r="G49" s="4"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -2015,10 +2021,10 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L50" s="8" t="s">
+      <c r="L50" s="26" t="s">
         <v>37</v>
       </c>
       <c r="M50" s="8"/>
@@ -2029,7 +2035,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>